--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H2">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I2">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J2">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N2">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O2">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P2">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q2">
-        <v>0.4924374326090001</v>
+        <v>1.387172509671</v>
       </c>
       <c r="R2">
-        <v>2.954624595654</v>
+        <v>5.548690038684</v>
       </c>
       <c r="S2">
-        <v>0.00139059113636608</v>
+        <v>0.001748035324743151</v>
       </c>
       <c r="T2">
-        <v>0.0009450466088821679</v>
+        <v>0.000818258454399006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H3">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I3">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J3">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N3">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O3">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P3">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q3">
-        <v>1.670974163874666</v>
+        <v>2.226294359757</v>
       </c>
       <c r="R3">
-        <v>10.025844983248</v>
+        <v>13.357766158542</v>
       </c>
       <c r="S3">
-        <v>0.004718654000508989</v>
+        <v>0.002805448606427953</v>
       </c>
       <c r="T3">
-        <v>0.003206800219741476</v>
+        <v>0.001969853247326868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.337382</v>
+        <v>3.872739</v>
       </c>
       <c r="H4">
-        <v>304.012146</v>
+        <v>7.745478</v>
       </c>
       <c r="I4">
-        <v>0.9010377201377272</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J4">
-        <v>0.9185187000216628</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N4">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O4">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P4">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q4">
-        <v>72.62840034201801</v>
+        <v>21.652363694091</v>
       </c>
       <c r="R4">
-        <v>653.6556030781621</v>
+        <v>129.914182164546</v>
       </c>
       <c r="S4">
-        <v>0.2050949076494141</v>
+        <v>0.02728506825040381</v>
       </c>
       <c r="T4">
-        <v>0.2090739419060143</v>
+        <v>0.01915828369603515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,22 +723,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.337382</v>
+        <v>3.872739</v>
       </c>
       <c r="H5">
-        <v>304.012146</v>
+        <v>7.745478</v>
       </c>
       <c r="I5">
-        <v>0.9010377201377272</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J5">
-        <v>0.9185187000216628</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N5">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O5">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P5">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q5">
-        <v>246.4479190626827</v>
+        <v>0.9178739976510001</v>
       </c>
       <c r="R5">
-        <v>2218.031271564144</v>
+        <v>5.507243985906001</v>
       </c>
       <c r="S5">
-        <v>0.6959428124883131</v>
+        <v>0.001156652226288494</v>
       </c>
       <c r="T5">
-        <v>0.7094447581156484</v>
+        <v>0.0008121464562786156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,61 +791,61 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.502495333333333</v>
+        <v>101.337382</v>
       </c>
       <c r="H6">
-        <v>4.507486</v>
+        <v>304.012146</v>
       </c>
       <c r="I6">
-        <v>0.01335938370367848</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J6">
-        <v>0.0136185683222204</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N6">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O6">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P6">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q6">
-        <v>1.076836902904667</v>
+        <v>36.297935521198</v>
       </c>
       <c r="R6">
-        <v>9.691532126142</v>
+        <v>217.787613127188</v>
       </c>
       <c r="S6">
-        <v>0.003040873323860642</v>
+        <v>0.04574057881333877</v>
       </c>
       <c r="T6">
-        <v>0.003099869128604397</v>
+        <v>0.03211686983094975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.502495333333333</v>
+        <v>101.337382</v>
       </c>
       <c r="H7">
-        <v>4.507486</v>
+        <v>304.012146</v>
       </c>
       <c r="I7">
-        <v>0.01335938370367848</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J7">
-        <v>0.0136185683222204</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N7">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O7">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P7">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q7">
-        <v>3.654000537544889</v>
+        <v>58.25511142866601</v>
       </c>
       <c r="R7">
-        <v>32.886004837904</v>
+        <v>524.296002857994</v>
       </c>
       <c r="S7">
-        <v>0.01031851037981784</v>
+        <v>0.07340975395216595</v>
       </c>
       <c r="T7">
-        <v>0.010518699193616</v>
+        <v>0.07731728281003575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.734249999999999</v>
+        <v>101.337382</v>
       </c>
       <c r="H8">
-        <v>11.4685</v>
+        <v>304.012146</v>
       </c>
       <c r="I8">
-        <v>0.0509858794921282</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J8">
-        <v>0.03465003569692389</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N8">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O8">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P8">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q8">
-        <v>4.10973124075</v>
+        <v>566.574161303158</v>
       </c>
       <c r="R8">
-        <v>24.6583874445</v>
+        <v>5099.167451728423</v>
       </c>
       <c r="S8">
-        <v>0.01160544560139369</v>
+        <v>0.7139642987010597</v>
       </c>
       <c r="T8">
-        <v>0.007887068113223098</v>
+        <v>0.7519679147121014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.734249999999999</v>
+        <v>101.337382</v>
       </c>
       <c r="H9">
-        <v>11.4685</v>
+        <v>304.012146</v>
       </c>
       <c r="I9">
-        <v>0.0509858794921282</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J9">
-        <v>0.03465003569692389</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N9">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O9">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P9">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q9">
-        <v>13.94543604733333</v>
+        <v>24.017871570438</v>
       </c>
       <c r="R9">
-        <v>83.67261628399999</v>
+        <v>216.160844133942</v>
       </c>
       <c r="S9">
-        <v>0.03938043389073451</v>
+        <v>0.03026594575481271</v>
       </c>
       <c r="T9">
-        <v>0.02676296758370079</v>
+        <v>0.03187697222037906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.182641333333333</v>
+        <v>2.422325</v>
       </c>
       <c r="H10">
-        <v>3.547924</v>
+        <v>7.266975</v>
       </c>
       <c r="I10">
-        <v>0.01051541326306721</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J10">
-        <v>0.01071942217813777</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N10">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O10">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P10">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q10">
-        <v>0.8475978609586668</v>
+        <v>0.8676501694250001</v>
       </c>
       <c r="R10">
-        <v>7.628380748628</v>
+        <v>5.20590101655</v>
       </c>
       <c r="S10">
-        <v>0.002393526557084137</v>
+        <v>0.001093363035311301</v>
       </c>
       <c r="T10">
-        <v>0.002439963225229014</v>
+        <v>0.0007677077814508305</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.422325</v>
+      </c>
+      <c r="H11">
+        <v>7.266975</v>
+      </c>
+      <c r="I11">
+        <v>0.02063787632403778</v>
+      </c>
+      <c r="J11">
+        <v>0.02135255625150052</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>1.182641333333333</v>
-      </c>
-      <c r="H11">
-        <v>3.547924</v>
-      </c>
-      <c r="I11">
-        <v>0.01051541326306721</v>
-      </c>
-      <c r="J11">
-        <v>0.01071942217813777</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N11">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O11">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P11">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q11">
-        <v>2.876130109592889</v>
+        <v>1.392505016475</v>
       </c>
       <c r="R11">
-        <v>25.885170986336</v>
+        <v>12.532545148275</v>
       </c>
       <c r="S11">
-        <v>0.008121886705983076</v>
+        <v>0.001754755044315042</v>
       </c>
       <c r="T11">
-        <v>0.008279458952908755</v>
+        <v>0.001848158926020211</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.023554</v>
+        <v>2.422325</v>
       </c>
       <c r="H12">
-        <v>6.070662</v>
+        <v>7.266975</v>
       </c>
       <c r="I12">
-        <v>0.01799235826652378</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J12">
-        <v>0.01834142695243139</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N12">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O12">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P12">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q12">
-        <v>1.450279128246</v>
+        <v>13.543143982925</v>
       </c>
       <c r="R12">
-        <v>13.052512154214</v>
+        <v>121.888295846325</v>
       </c>
       <c r="S12">
-        <v>0.004095434602342524</v>
+        <v>0.01706629415244855</v>
       </c>
       <c r="T12">
-        <v>0.004174889888508101</v>
+        <v>0.01797471617142222</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.023554</v>
+        <v>2.422325</v>
       </c>
       <c r="H13">
-        <v>6.070662</v>
+        <v>7.266975</v>
       </c>
       <c r="I13">
-        <v>0.01799235826652378</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J13">
-        <v>0.01834142695243139</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,772 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N13">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O13">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P13">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q13">
-        <v>4.921191593551999</v>
+        <v>0.5741128259250001</v>
       </c>
       <c r="R13">
-        <v>44.29072434196799</v>
+        <v>5.167015433325001</v>
       </c>
       <c r="S13">
-        <v>0.01389692366418126</v>
+        <v>0.0007234640919628918</v>
       </c>
       <c r="T13">
-        <v>0.01416653706392329</v>
+        <v>0.0007619733726072545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.912825</v>
+      </c>
+      <c r="H14">
+        <v>15.82565</v>
+      </c>
+      <c r="I14">
+        <v>0.06741618227271494</v>
+      </c>
+      <c r="J14">
+        <v>0.04650051525449849</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.358189</v>
+      </c>
+      <c r="N14">
+        <v>0.716378</v>
+      </c>
+      <c r="O14">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P14">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q14">
+        <v>2.834286873925</v>
+      </c>
+      <c r="R14">
+        <v>11.3371474957</v>
+      </c>
+      <c r="S14">
+        <v>0.003571605940527034</v>
+      </c>
+      <c r="T14">
+        <v>0.001671875113306064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.912825</v>
+      </c>
+      <c r="H15">
+        <v>15.82565</v>
+      </c>
+      <c r="I15">
+        <v>0.06741618227271494</v>
+      </c>
+      <c r="J15">
+        <v>0.04650051525449849</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.574863</v>
+      </c>
+      <c r="N15">
+        <v>1.724589</v>
+      </c>
+      <c r="O15">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P15">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q15">
+        <v>4.548790317975</v>
+      </c>
+      <c r="R15">
+        <v>27.29274190785</v>
+      </c>
+      <c r="S15">
+        <v>0.005732124955789241</v>
+      </c>
+      <c r="T15">
+        <v>0.004024826878800567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.912825</v>
+      </c>
+      <c r="H16">
+        <v>15.82565</v>
+      </c>
+      <c r="I16">
+        <v>0.06741618227271494</v>
+      </c>
+      <c r="J16">
+        <v>0.04650051525449849</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.590969</v>
+      </c>
+      <c r="N16">
+        <v>16.772907</v>
+      </c>
+      <c r="O16">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P16">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q16">
+        <v>44.240359277425</v>
+      </c>
+      <c r="R16">
+        <v>265.44215566455</v>
+      </c>
+      <c r="S16">
+        <v>0.05574916620472011</v>
+      </c>
+      <c r="T16">
+        <v>0.03914442625415225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.912825</v>
+      </c>
+      <c r="H17">
+        <v>15.82565</v>
+      </c>
+      <c r="I17">
+        <v>0.06741618227271494</v>
+      </c>
+      <c r="J17">
+        <v>0.04650051525449849</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.237009</v>
+      </c>
+      <c r="N17">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P17">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q17">
+        <v>1.875410740425</v>
+      </c>
+      <c r="R17">
+        <v>11.25246444255</v>
+      </c>
+      <c r="S17">
+        <v>0.00236328517167856</v>
+      </c>
+      <c r="T17">
+        <v>0.001659387008239604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5045936666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.513781</v>
+      </c>
+      <c r="I18">
+        <v>0.004299068740387607</v>
+      </c>
+      <c r="J18">
+        <v>0.004447943464089625</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.358189</v>
+      </c>
+      <c r="N18">
+        <v>0.716378</v>
+      </c>
+      <c r="O18">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P18">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q18">
+        <v>0.1807399008696666</v>
+      </c>
+      <c r="R18">
+        <v>1.084439405218</v>
+      </c>
+      <c r="S18">
+        <v>0.0002277580683787376</v>
+      </c>
+      <c r="T18">
+        <v>0.0001599209372692791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5045936666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.513781</v>
+      </c>
+      <c r="I19">
+        <v>0.004299068740387607</v>
+      </c>
+      <c r="J19">
+        <v>0.004447943464089625</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.574863</v>
+      </c>
+      <c r="N19">
+        <v>1.724589</v>
+      </c>
+      <c r="O19">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P19">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q19">
+        <v>0.290072229001</v>
+      </c>
+      <c r="R19">
+        <v>2.610650061009</v>
+      </c>
+      <c r="S19">
+        <v>0.0003655324045752557</v>
+      </c>
+      <c r="T19">
+        <v>0.0003849893342401481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.5045936666666666</v>
+      </c>
+      <c r="H20">
+        <v>1.513781</v>
+      </c>
+      <c r="I20">
+        <v>0.004299068740387607</v>
+      </c>
+      <c r="J20">
+        <v>0.004447943464089625</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.590969</v>
+      </c>
+      <c r="N20">
+        <v>16.772907</v>
+      </c>
+      <c r="O20">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P20">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q20">
+        <v>2.821167547929667</v>
+      </c>
+      <c r="R20">
+        <v>25.390507931367</v>
+      </c>
+      <c r="S20">
+        <v>0.003555073717521762</v>
+      </c>
+      <c r="T20">
+        <v>0.003744306787995238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.5045936666666666</v>
+      </c>
+      <c r="H21">
+        <v>1.513781</v>
+      </c>
+      <c r="I21">
+        <v>0.004299068740387607</v>
+      </c>
+      <c r="J21">
+        <v>0.004447943464089625</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.237009</v>
+      </c>
+      <c r="N21">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P21">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q21">
+        <v>0.119593240343</v>
+      </c>
+      <c r="R21">
+        <v>1.076339163087</v>
+      </c>
+      <c r="S21">
+        <v>0.0001507045499118516</v>
+      </c>
+      <c r="T21">
+        <v>0.000158726404584959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.968758</v>
+      </c>
+      <c r="I22">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J22">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.358189</v>
+      </c>
+      <c r="N22">
+        <v>0.716378</v>
+      </c>
+      <c r="O22">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P22">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q22">
+        <v>0.4738551530873333</v>
+      </c>
+      <c r="R22">
+        <v>2.843130918524</v>
+      </c>
+      <c r="S22">
+        <v>0.0005971251164750133</v>
+      </c>
+      <c r="T22">
+        <v>0.0004192729986404571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H23">
+        <v>3.968758</v>
+      </c>
+      <c r="I23">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J23">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.574863</v>
+      </c>
+      <c r="N23">
+        <v>1.724589</v>
+      </c>
+      <c r="O23">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P23">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q23">
+        <v>0.760497376718</v>
+      </c>
+      <c r="R23">
+        <v>6.844476390462</v>
+      </c>
+      <c r="S23">
+        <v>0.0009583352247896379</v>
+      </c>
+      <c r="T23">
+        <v>0.001009346464369854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H24">
+        <v>3.968758</v>
+      </c>
+      <c r="I24">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J24">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.590969</v>
+      </c>
+      <c r="N24">
+        <v>16.772907</v>
+      </c>
+      <c r="O24">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P24">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q24">
+        <v>7.396400982167334</v>
+      </c>
+      <c r="R24">
+        <v>66.56760883950601</v>
+      </c>
+      <c r="S24">
+        <v>0.009320520773483242</v>
+      </c>
+      <c r="T24">
+        <v>0.009816642908921706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.968758</v>
+      </c>
+      <c r="I25">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J25">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.237009</v>
+      </c>
+      <c r="N25">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P25">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q25">
+        <v>0.313543788274</v>
+      </c>
+      <c r="R25">
+        <v>2.821894094466</v>
+      </c>
+      <c r="S25">
+        <v>0.000395109918871396</v>
+      </c>
+      <c r="T25">
+        <v>0.0004161412304737559</v>
       </c>
     </row>
   </sheetData>
